--- a/config_files/20093_2.xlsx
+++ b/config_files/20093_2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>wejscie</t>
   </si>
@@ -77,9 +77,6 @@
     <t>przepływ</t>
   </si>
   <si>
-    <t>m/s</t>
-  </si>
-  <si>
     <t>XT_UAIN_04</t>
   </si>
   <si>
@@ -111,6 +108,12 @@
   </si>
   <si>
     <t>%/Pa</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>powinno byc w m/s ale na razie pokazujemy w voltach</t>
   </si>
 </sst>
 </file>
@@ -435,7 +438,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,56 +526,59 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
         <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
       </c>
       <c r="C7" s="2">
         <f>55/6</f>
         <v>9.1666666666666661</v>
       </c>
       <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
         <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
         <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
       </c>
       <c r="C8">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>

--- a/config_files/20093_2.xlsx
+++ b/config_files/20093_2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>wejscie</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>powinno byc w m/s ale na razie pokazujemy w voltach</t>
+  </si>
+  <si>
+    <t>0-10V = 0-1000 Pa</t>
   </si>
 </sst>
 </file>
@@ -438,7 +441,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +584,7 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
